--- a/TCC/PTCC/EstudoViabilidade.xlsx
+++ b/TCC/PTCC/EstudoViabilidade.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Se 1" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="Se 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Se 4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="73">
   <si>
     <t>Exemplo De Função Com Dois SE</t>
   </si>
@@ -212,6 +213,45 @@
   </si>
   <si>
     <t>CUSTOS TOTAIS</t>
+  </si>
+  <si>
+    <t>CÁLCULO E ANÁLISE DE PAYBACK</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Infraestrutura</t>
+  </si>
+  <si>
+    <t>Detalhe</t>
+  </si>
+  <si>
+    <t>Redes, cabeamento estruturado</t>
+  </si>
+  <si>
+    <t>Banners, redes sociais</t>
+  </si>
+  <si>
+    <t>DÍVIDA DE INICIO DE PROJETO</t>
+  </si>
+  <si>
+    <t>Valor (R$)</t>
+  </si>
+  <si>
+    <t>BENEFÍCIOS</t>
+  </si>
+  <si>
+    <t>Entregue parte 1/2</t>
+  </si>
+  <si>
+    <t>Entregue parte 2/2</t>
+  </si>
+  <si>
+    <t>Retorno Financeiro (30%)</t>
+  </si>
+  <si>
+    <t>Retorno Financeiro (70%)</t>
   </si>
 </sst>
 </file>
@@ -219,7 +259,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -310,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -447,12 +487,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,7 +576,7 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -534,6 +624,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1008,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="C4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1898,579 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="F2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1400</v>
+      </c>
+      <c r="D4" s="12">
+        <f>C4*B4</f>
+        <v>1400</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>800</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" ref="D5:D12" si="0">C5*B5</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>850</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8">
+        <v>300</v>
+      </c>
+      <c r="D8" s="12">
+        <v>300</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="18">
+        <f>D14*7+D33</f>
+        <v>70865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="8">
+        <v>250</v>
+      </c>
+      <c r="D9" s="12">
+        <v>250</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8">
+        <v>150</v>
+      </c>
+      <c r="D10" s="12">
+        <v>150</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8">
+        <v>70</v>
+      </c>
+      <c r="D11" s="12">
+        <v>70</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="20">
+        <f>SUM(G8:G10)</f>
+        <v>72065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>100</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="15">
+        <f>SUM(D4:D13)</f>
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="F16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D18" s="12">
+        <f>C18*B18</f>
+        <v>12000</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19:D21" si="1">C19*B19</f>
+        <v>4000</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8">
+        <v>500</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="12">
+        <f>SUM(H18:H19)</f>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="12">
+        <f>SUM(D18:D21)</f>
+        <v>19500</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12">
+        <f>D22*20/100</f>
+        <v>3900</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="14">
+        <f>D23/12</f>
+        <v>325</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="8">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="F26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="12">
+        <f>SUM(H24:H25)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="18">
+        <f>SUM($D$14+$D$24)</f>
+        <v>6095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="18">
+        <f t="shared" ref="D29:D32" si="2">SUM($D$14+$D$24)</f>
+        <v>6095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="18">
+        <f t="shared" si="2"/>
+        <v>6095</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="18">
+        <f t="shared" si="2"/>
+        <v>6095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="18">
+        <f t="shared" si="2"/>
+        <v>6095</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="20">
+        <f>SUM(D28:D32)</f>
+        <v>30475</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="41aaa5c0-0691-4f28-9572-75e5a6cb81c8" xsi:nil="true"/>
@@ -1805,15 +2479,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1986,20 +2651,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58DD3BE2-BC72-44B7-9EE7-DEFEA186DCFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{239F1BC5-945E-421B-8D15-40839D5AA36B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="41aaa5c0-0691-4f28-9572-75e5a6cb81c8"/>
     <ds:schemaRef ds:uri="7f2e6b23-d3a3-4a05-801f-604638a15be2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58DD3BE2-BC72-44B7-9EE7-DEFEA186DCFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
